--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,33 +483,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QA Automation Engineer (Python) remotely</t>
+          <t>Junior программист Python</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3+ years of experience in Test Automation Development. Strong programming skills in Python and experience in test automation using...</t>
+          <t xml:space="preserve">Уверенное знание Python. Уверенное знание SQL(PSQL, MSSQL). Умение работать с FastAPI. Умение работать с Git. Знание SQLAlchemy. </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Design, develop, and maintain automated testing solutions using Python and Playwright. Create and execute automated test cases to identify defects...</t>
+          <t>Поддержка микросервисов. Разработка интеграций с внешними и внутренними сервисами. Участие в разработке моделей по прогнозированию.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>350000</v>
+        <v>60000</v>
       </c>
       <c r="F2" t="n">
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>RUR</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/93663460</t>
+          <t>https://hh.ru/vacancy/93804724</t>
         </is>
       </c>
     </row>
@@ -521,24 +521,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Тестировщик / QA Automation (Python) Engineer</t>
+          <t>Программист на языке Python</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Опыт автоматизации на Python от 3-х лет. Опыт в тестировании сервисов не менее 4-х лет. Знание основ принципов...</t>
+          <t>Уверенное владение Python. Владение git на базовом уровне (работа с удаленными репозиториями, ветвление). Наличие хорошего математического аппарата (математический анализ, линейная...</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Написание и поддержка автотестов. Проведение регрессионного тестирования. Внедрение новых инструментов тестирования. Обеспечение стабильности и качества продукта.</t>
+          <t>Реализация программных модулей управления судовым радиолокатором. Изучение и реализация алгоритмов цифровой обработки сигналов. Оптимизация программных модулей.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>310000</v>
+        <v>30000</v>
       </c>
       <c r="F3" t="n">
-        <v>420000</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/92061962</t>
+          <t>https://hh.ru/vacancy/93797563</t>
         </is>
       </c>
     </row>
@@ -559,24 +559,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Python QA Automation Engineer / Тестировщик</t>
+          <t>Junior Python-разработчик</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Коллеги, всех приветствую! Мы ожидаем от кандидата следующие качества и навыки: - Опыт в тестировании backend-сервисов не менее 4-х...</t>
+          <t>Уверенное владение языком программирования Python. Знание одного из следующих фреймворков: Django, DRF или FastAPI. Опыт работы с системой контроля версий...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Проведение комплексного тестирования функциональных, регрессионных и интеграционных аспектов нашей поисковой библиотеки. - Разработка и использование инструментов для автоматизации процессов тестирования. - </t>
+          <t xml:space="preserve">Разработка и тестирование backend-части программного обеспечения в соответствии с техническим заданием. Поддержка и устранение недостатков в разработанном программном обеспечении. </t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>350000</v>
+        <v>40000</v>
       </c>
       <c r="F4" t="n">
-        <v>460000</v>
+        <v>60000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -585,7 +585,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/93434462</t>
+          <t>https://hh.ru/vacancy/93106678</t>
         </is>
       </c>
     </row>
@@ -597,24 +597,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Разработчик BackEnd (Python)</t>
+          <t>Разработчик Odoo (Python)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Имеете опыт работы с реляционными базами данных. Умеете писать надежный код, исследовать сложные проблемы, работать в команде.</t>
+          <t>Опыт программирования на Python. Опыт работы с CRM-системой odoo и django - от года. Опыт работы с ORM(django ORM...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Облачная платформа SberInfra.Cloud является фундаментом для всех сервисов группы компании Сбер. Мы помогаем создавать и развивать цифровые сервисы и приложения...</t>
+          <t>Разработка CRM системы на платформе Odoo.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>300000</v>
+        <v>80000</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/92542099</t>
+          <t>https://hh.ru/vacancy/93802380</t>
         </is>
       </c>
     </row>
@@ -635,33 +635,33 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Senior Python developer на проект InfraCloud</t>
+          <t>Junior Разработчик операций AI, Python/React (Удаленно)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Отличные знания и опыт разработки на Python (используем Python 3.6 и 3.7). Опыт работы с фреймворками Django/Flask. </t>
+          <t>Кому подходит: Продуктовый mindset: желание понять потребности будучи рекрутером перед тем, как кодить. Python, React до 1 год, опыт применения...</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Активно участвовать в развитии и поддержке облачной инфраструктуры Банка и связанных сервисов (automate infrastructure provisioning, infrastructure as code). </t>
+          <t>НЕТ</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>380000</v>
+        <v>50000</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>RUR</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://hh.ru/vacancy/93292562</t>
+          <t>https://hh.ru/vacancy/93768733</t>
         </is>
       </c>
     </row>
@@ -673,33 +673,1059 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Team lead Python</t>
+          <t>Junior Backend Developer (Python и SQL)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Опыт работы в разработке ПО и управлении командой разработчиков. Опыт в разработке программного обеспечения не менее 7 лет и не...</t>
+          <t>Высшее образование (можно неоконченное/неполное) технического ВУЗа последнего или предпоследнего курса. Логичный и структурированный подход к решению задач, способность аргументированно...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Проводить кодревью разработчиков. Разрабатывать новые модули и подсистемы приложения. Предлагать новые идеи по оптимизации кода и использованию новых технологий. </t>
+          <t>Желание расти с проектом и учиться новым технологиям, расширять компетенции. Написание качественного кода и тестов к нему.</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92551827</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Python developer (Telegram, WA боты)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт программирования на Python не менее 2х лет. Коммерческий опыт разработки ботов для Telegram и/или WhatsApp. </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Разработка и поддержка ботов для Telegram и WhatsApp. Интеграция ботов с внутренними и внешними API. Работа с базами данных и...</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93775362</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jun+/Middle Python разработчик</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Коммерческий опыт разработки на Python от 1,5 лет. Коммерческий опыт использования одного из ассинхронных веб фреймворков. Опыт написания высоконагруженных...</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Разработка API. Разработка архитектурных решений действующего проекта. Интеграции с внешними сервисами. Работа с базами данных PostgreSQL. Работа с брокерами сообщений.</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>160000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93090286</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Бэкенд-разработчик Python</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1) 1+ год опыта работы в качестве бэкенд-разработчика (Python). 2) Опыт в разработке чат-ботов на aiogram(несколько...</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1) Написание системы прослеживаемости для огромного производства по переработке продукции. 2) Система автоматизации работы с 1С. 1) Написание чат...</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92708287</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>No-code developer junior/middle в студию США (ML, full stack, python, go, javascript)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Опыт работы в коде. Любой стэк, лучше full stack, так учиться будет сильно быстрее.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Уже сделали первый проект - тул для проверки домашних заданий для школ США. Про текущий проект:</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92714590</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Программист Python</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Backend: Python 3.7, pymongo, flask, pycades (CryptoPro), aiohttp. Database: MongoDB. Infrastructure: Ansible. ​​​​​​​Знание Python, опыт работы с реальными задачами. </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Также встречается Groovy, TypeScript, JavaScript, html. Вносить доработки и разрабатывать новый функционал в большой учётной медицинской системе. Принимать участие в...</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>80000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92617402</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Python-разработчик (Django)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">От 1,5+ года коммерческого опыта в стеке python, django, postgresql. Будет плюсом опыт с асинхронщиной (aiohttp\FastAPI). </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Высоконагруженная B2B - платформа для автоматизации процесса обучения. Проектирование и разработка новых фич и интеграций. Небольшой процент поддержки и...</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93230549</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Python-разработчик</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>От 4 лет коммерческого опыта на Python. Высшее профильное образование.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Участвовать в развитии и запуске продуктов на Python. Писать код на Python, который легко читать, поддерживать и развивать.</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>425000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93914138</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Python-разработчик (Инженер-программист)(01050-1)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Высшее образование специалитет / магистратура (готовы рассмотреть в том числе соискателя-студента магистратуры, специалитета). Знание системы и основных инструментов Git. </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Интерес к архитектуре приложений и построению распределенных сервисных систем. Работа по гибким методологиям разработки ПО с использованием программных продуктов Atlassian...</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>90000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/91683615</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Python developer</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт работы в разработке на Python от 3х лет. Опыт работы с Android SDK и разработки мобильных приложений. </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Разработка и интеграция ботов для андроид приложений. Анализ и сниффинг мобильных приложений для выявления ключевых точек интеграции и автоматизации. </t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>360000</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93763878</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Backend-разработчик Python</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знание и умение применять классические алгоритмы и структуры данных. Отличное знание Python. Опыт построения API с FastApi или Flask. </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Разработкой backend-a микросервисных web-приложений. Участвовать в принятии технических решений. Участвовать в планировании и оценке задач. Проводить Code review.</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93338891</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Python разработчик</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Знание Python 3.8+. Опыт разработки асинхронных приложений: asyncio. Знание SQL. Работать надо будет с Postgres и ClickHouse. </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Интересные задачи. Вовлеченность в определении стратегии развития продуктов и услуг Компании, а также много другое. Python 3.8/ 3.9...</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>340000</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93793267</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Python backend developer (middle/senior)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт работы с Python от 3-х лет (FastAPI, Django). Понимание принципов оптимизации сервисов и ORM, умение писать тесты. </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Реализовывать новый продукт, тесно связанный с существующим. Временно помогать в развитии текущего продукта. Обеспечивать тестируемость и наблюдаемость кода. </t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>350000</v>
       </c>
-      <c r="F7" t="n">
-        <v>450000</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>RUR</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>https://hh.ru/vacancy/93559599</t>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92802619</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Программист Python/C++</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Высшее/незаконченное высшее техническое образование, техникум, профильный колледж (плюсом будут оконченные курсы по программированию). Опыт работы от 1 года, по...</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ведение и оптимизация внешнего сайта предприятия: внесение косметических изменений, разработка новых и исправление старых страниц, внесение новой и исправление размещенной...</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>60000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93203722</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Senior Python developer</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Непрерывный опыт разработки на Python (3.8 и выше) от 3х лет. Умение и готовность работать с чужим кодом. </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Разработка backend распределенной высоконагруженной системы (FastApi/Flask, Postgres, Rabbit, Redis, Python3.8+).</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93052389</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Разработчик по оптимизации бизнес-процессов (Python)</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Базовые знания Python, SQL-запросов, опытный пользователь Excel. Если ты способен общаться с владельцем бизнес-процесса и провести аналитику для...</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Инициация и ведение проектов в части автоматизации и оптимизации бизнес-процессов. Анализ и описание бизнес-процессов As Is, моделирование и...</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>115000</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92009442</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Программист Python (Senior)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Опыт разработки на Python от 5 лет. Знание и коммерческий опыт работы с любым из фреймворков Django/FastAPI/Flask. </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Разработкой внутренних информационных систем группы компаний. Взаимодействие с командой разработки и внутренними заказчиками продукта. Участие в подготовке технических требований к...</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92571555</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Middle/Senior python developer (SberDDI)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Писал на Python 3+ лет. Работал с FastAPI, SQL Alchemy. Создавал unit тесты и документировал исходный код. </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Разработка архитектуры нового продукта без груза legacy. Разработка сервиса, ежедневно используемого в проде инженерами для решения задач поддержания инфраструктуры. </t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93798951</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Middle Python Developer</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Готов работать не по четкому ТЗ, а по бизнес требованиям. Умеет работать в сжатых сроках и отвечать за свой результат. </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Разработка HTTP API в микросервисной архитектуре с использованием современного стека технологий (FastAPI, Python 3.10+). Разработка админок с использованием...</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/91397273</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Python Developer (Senior)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Английский B1+. Опыт работы в качестве Python разработчика от 3 лет. Опыт написания модульных и интеграционных тестов. </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Проектирование и разработка нового функционала. Взаимодействие с другими командами. Участие в ревью кода.</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>580000</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92805858</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Python Backend Developer (Middle, Remote)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Хорошее знание Python 3.8, Django&gt;=2.0, DRF. Опыт работы с реляционными базами данных (MySQL). Умение писать юнит-тесты. </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Разработка подсистемы скоринга заемщиков: создание и доработка риск-факторов, анализ предоставленных документов, доработка интеграций с внешними источниками и т.д. </t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>195000</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/90544605</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Middle Python Developer / Middle Backend-разработчик</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Владение стеком: Python, Djagno, PostgreSQL, DRF, PyTest. Понимание: GraphQL, Rabbitmq, Redis, Celery, Grafana, Docker, S3. Готовность заниматься проектированием (не...</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Адаптация бэкенда фандоматов под увеличенные нагрузки. Разработка внутренних приложений и ботов для обслуживания фандоматов. Развитие программы лояльности Экобонус (розыгрыши, достижения...</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>270000</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/90950707</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Software Developer Python</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Уверенное владение Python 3 (FastAPI/ Django), знание слабых и сильных сторон. Коммерческий опыт разработки веб-продуктов​​​ в команде​​​​ от 2...</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Разработка архитектуры новых проектов и технологических решений. Поддержка, развитие и оптимизация существующего кода бекендов различных сервисов действующих проектов. </t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92696470</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Python разработчик (+ Go)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Опыт коммерческой разработки на Python от 1 года (+ Golang будет плюсом). Знание алгоритмов и структур данных. Плюсом будет знакомство...</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Вы будете заниматься бекендом сервиса, работать с базой данных, взаимодействовать с внешними API и предоставлять API для фронтенда. </t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93297015</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Backend Developer Python / Разработчик серверной части</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отличные знания Python (многопоточность, асинхронность, очереди, паттерны, алгоритмы, криптография, …). Опыт реализации высоконагруженных распределенных приложений. Опыт построения инфраструктуры на микросервисной архитектуре. </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Участие в проектировании архитектуры масштабируемой распределенной системы управления устройствами (NMS). Разработка ядра NMS системы. Оптимизация нагруженных сервисов. Реализация отказоустойчивости и...</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/93152006</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Python developer (FastAPI)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Python 3.10. FastAPI. SQLAlchemy. PostgreSQL. Kafka. Kubernetes. GitLab CI/CD. EFK. Умение писать тестируемый поддерживаемый код. Опыт в разработке...</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Разрабатывать новые сервисы. Участвовать в проектировании архитектуры системы. Проводить code review, рефакторить код, писать тесты. Искать узкие места и улучшать...</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92884229</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Программист Python (Промышленная робототехника)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Высшее техническое/математическое образование. Знание Python, Git. Приветствуется опыт работы с WebGL, OpenGL, физическими движками (Bullet, MuJoCo и др.). </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Участие в разработке промышленных робототехнических систем от концептуального проектирования до ввода в эксплуатацию. Разработка сценариев и моделирование работы робототехнических систем. </t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>160000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92891536</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Преподаватель программирования (Python / JavaScript/ C++/ Unity/ Roblox / Minecraft / Scratch)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Релевантный опыт работы от года (онлайн или оффлайн занятия). Уверенные навыки работы с Zoom и Discord. Опыт работы с детьми...</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Проведение параллельных занятий (преподаватель одновременно курирует до 4 учеников, каждый из которых находится в отдельном онлайн-кабинете, каждый занимается по...</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>70000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>RUR</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://hh.ru/vacancy/92764642</t>
         </is>
       </c>
     </row>
